--- a/status.xlsx
+++ b/status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>готовность</t>
   </si>
@@ -132,10 +132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -468,61 +468,63 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A9" s="1"/>
@@ -619,36 +621,36 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.65">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/status.xlsx
+++ b/status.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
-  <si>
-    <t>готовность</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>наличие</t>
   </si>
@@ -92,6 +89,24 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>готово</t>
+  </si>
+  <si>
+    <t>Примечание</t>
+  </si>
+  <si>
+    <t>Добавить описание разделов</t>
+  </si>
+  <si>
+    <t>Написать побольше</t>
+  </si>
+  <si>
+    <t>Может быть, написать еще</t>
+  </si>
+  <si>
+    <t>Добавить описание алгоритма построения маршрута</t>
   </si>
 </sst>
 </file>
@@ -115,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -123,19 +138,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -440,217 +581,272 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.58984375" customWidth="1"/>
-    <col min="4" max="4" width="88.26953125" customWidth="1"/>
+    <col min="1" max="1" width="46.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.58984375" customWidth="1"/>
+    <col min="5" max="5" width="88.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A3" s="2"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A4" s="2"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A6" s="2"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A10" s="2"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A13" s="2"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A18" s="2"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3" t="s">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3" t="s">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3"/>
+      <c r="E23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/status.xlsx
+++ b/status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>наличие</t>
   </si>
@@ -261,22 +261,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -593,7 +593,7 @@
     <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.58984375" customWidth="1"/>
-    <col min="5" max="5" width="88.26953125" customWidth="1"/>
+    <col min="5" max="5" width="93.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
@@ -606,10 +606,10 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A2" s="2"/>
@@ -647,19 +647,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A7" s="2" t="s">
@@ -669,53 +669,61 @@
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A9" s="2"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A10" s="2"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A11" s="2"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A12" s="2"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -725,8 +733,8 @@
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -736,8 +744,8 @@
       <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -747,17 +755,19 @@
       <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12" t="s">
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -769,8 +779,8 @@
       <c r="C17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -780,8 +790,8 @@
       <c r="C18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -793,8 +803,8 @@
       <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -806,8 +816,8 @@
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -815,28 +825,28 @@
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="10"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/status.xlsx
+++ b/status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>наличие</t>
   </si>
@@ -100,13 +100,10 @@
     <t>Добавить описание разделов</t>
   </si>
   <si>
-    <t>Написать побольше</t>
-  </si>
-  <si>
-    <t>Может быть, написать еще</t>
-  </si>
-  <si>
     <t>Добавить описание алгоритма построения маршрута</t>
+  </si>
+  <si>
+    <t>Написать сами юниты!!! Для приложения</t>
   </si>
 </sst>
 </file>
@@ -584,7 +581,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -773,7 +770,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
@@ -797,7 +794,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
@@ -809,9 +806,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A20" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
         <v>24</v>

--- a/status.xlsx
+++ b/status.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>наличие</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>Добавить описание разделов</t>
-  </si>
-  <si>
-    <t>Добавить описание алгоритма построения маршрута</t>
   </si>
   <si>
     <t>Написать сами юниты!!! Для приложения</t>
@@ -244,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -273,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +581,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -674,7 +674,9 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
@@ -769,9 +771,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5" t="s">
         <v>24</v>
@@ -793,9 +793,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
         <v>24</v>
@@ -819,7 +817,9 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
@@ -835,7 +835,9 @@
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="15" t="s">

--- a/status.xlsx
+++ b/status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>наличие</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Написать сами юниты!!! Для приложения</t>
+  </si>
+  <si>
+    <t>Дописать количество страниц и источников</t>
+  </si>
+  <si>
+    <t>Сделать названия аналогов НЕ заголовками</t>
   </si>
 </sst>
 </file>
@@ -259,6 +265,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -270,9 +279,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +587,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -632,31 +638,39 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A7" s="2" t="s">
@@ -666,21 +680,21 @@
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A8" s="2"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A9" s="2"/>
@@ -820,19 +834,19 @@
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A23" s="3" t="s">
@@ -840,10 +854,10 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/status.xlsx
+++ b/status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>наличие</t>
   </si>
@@ -97,16 +97,10 @@
     <t>Примечание</t>
   </si>
   <si>
-    <t>Добавить описание разделов</t>
-  </si>
-  <si>
-    <t>Написать сами юниты!!! Для приложения</t>
-  </si>
-  <si>
     <t>Дописать количество страниц и источников</t>
   </si>
   <si>
-    <t>Сделать названия аналогов НЕ заголовками</t>
+    <t>Дать ссылку на свою статью на СТНО</t>
   </si>
 </sst>
 </file>
@@ -247,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -279,6 +273,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +584,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -639,7 +636,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -651,9 +648,7 @@
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>24</v>
@@ -666,16 +661,16 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A6" s="2"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
         <v>24</v>
@@ -840,20 +835,24 @@
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D22" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A23" s="3"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="18" t="s">
+        <v>24</v>
+      </c>
       <c r="D23" s="16" t="s">
         <v>11</v>
       </c>

--- a/status.xlsx
+++ b/status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>наличие</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>Дать ссылку на свою статью на СТНО</t>
+  </si>
+  <si>
+    <t>1. где-то написать, что ПО реализуется в виде ИС</t>
+  </si>
+  <si>
+    <t>2. есть в тексте ссылки на приложения?</t>
+  </si>
+  <si>
+    <t>3. сделать таблицы не разрывными</t>
+  </si>
+  <si>
+    <t>4. рисунок и его подпись - на одной странице</t>
   </si>
 </sst>
 </file>
@@ -262,6 +274,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -273,9 +288,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -653,10 +665,10 @@
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A6" s="2"/>
@@ -664,10 +676,10 @@
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A7" s="2"/>
@@ -675,10 +687,10 @@
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A8" s="2"/>
@@ -686,10 +698,10 @@
       <c r="C8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A9" s="2"/>
@@ -829,10 +841,10 @@
       <c r="C21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A22" s="2" t="s">
@@ -842,21 +854,41 @@
       <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.7">
       <c r="A23" s="3"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="C23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/status.xlsx
+++ b/status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>наличие</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>4. рисунок и его подпись - на одной странице</t>
+  </si>
+  <si>
+    <t>5. определения/сокращения по алфавиту</t>
+  </si>
+  <si>
+    <t>6. назвать приложения</t>
   </si>
 </sst>
 </file>
@@ -593,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -874,20 +880,48 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A26" t="s">
         <v>30</v>
       </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A27" t="s">
         <v>31</v>
       </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A28" t="s">
         <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
